--- a/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
+++ b/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/maquinl_microsoft_com/Documents/Desktop/Source files/MS-4004_4005/ms-4004/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\LeX\FY25\ILT\MSU121821_ILT_May\MS-4004_GitHub\10_DTP\id-ID\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0766BD4-7B19-44CA-BAEA-EF91AB6CDF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="2340" windowWidth="43935" windowHeight="16605" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -483,24 +483,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="@"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -533,30 +525,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -566,163 +536,31 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="177" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="top"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="0.39998000860214233"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39998000860214233"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39998000860214233"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39998000860214233"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.39998000860214233"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.7999799847602844"/>
-          <bgColor theme="4" tint="0.7999799847602844"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -735,14 +573,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E55" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:E55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:E55" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E55" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Tanggal" dataDxfId="4"/>
-    <tableColumn id="3" name="Jenis Tanggapan" dataDxfId="3"/>
-    <tableColumn id="4" name="Peringkat Umpan Balik" dataDxfId="2"/>
-    <tableColumn id="5" name="Jenis Keterlibatan" dataDxfId="1"/>
-    <tableColumn id="6" name="Peringkat Keterlibatan" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tanggal" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Jenis Tanggapan" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Peringkat Umpan Balik" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Jenis Keterlibatan" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Peringkat Keterlibatan" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1064,23 +902,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C05EE0-7576-4A84-96C8-27A79CF5A722}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C05EE0-7576-4A84-96C8-27A79CF5A722}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A19">
-      <selection pane="topLeft" activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45200</v>
       </c>
@@ -1117,7 +955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45204</v>
       </c>
@@ -1134,7 +972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45210</v>
       </c>
@@ -1151,7 +989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45221</v>
       </c>
@@ -1168,7 +1006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45218</v>
       </c>
@@ -1185,7 +1023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45213</v>
       </c>
@@ -1202,7 +1040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45203</v>
       </c>
@@ -1219,7 +1057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45201</v>
       </c>
@@ -1236,7 +1074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45225</v>
       </c>
@@ -1253,7 +1091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45227</v>
       </c>
@@ -1270,7 +1108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45233</v>
       </c>
@@ -1287,7 +1125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45233</v>
       </c>
@@ -1304,7 +1142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45237</v>
       </c>
@@ -1321,7 +1159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45241</v>
       </c>
@@ -1338,7 +1176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45249</v>
       </c>
@@ -1355,7 +1193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45231</v>
       </c>
@@ -1372,7 +1210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45260</v>
       </c>
@@ -1389,7 +1227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45233</v>
       </c>
@@ -1406,7 +1244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45254</v>
       </c>
@@ -1423,7 +1261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45252</v>
       </c>
@@ -1440,7 +1278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45250</v>
       </c>
@@ -1457,7 +1295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45243</v>
       </c>
@@ -1474,7 +1312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45248</v>
       </c>
@@ -1491,7 +1329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>45248</v>
       </c>
@@ -1508,7 +1346,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45264</v>
       </c>
@@ -1525,7 +1363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45268</v>
       </c>
@@ -1542,7 +1380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45277</v>
       </c>
@@ -1559,7 +1397,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45272</v>
       </c>
@@ -1576,7 +1414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45283</v>
       </c>
@@ -1593,7 +1431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45279</v>
       </c>
@@ -1610,7 +1448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45262</v>
       </c>
@@ -1627,7 +1465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45269</v>
       </c>
@@ -1644,7 +1482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45277</v>
       </c>
@@ -1661,7 +1499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45270</v>
       </c>
@@ -1678,7 +1516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45269</v>
       </c>
@@ -1695,7 +1533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45294</v>
       </c>
@@ -1712,7 +1550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45306</v>
       </c>
@@ -1729,7 +1567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45304</v>
       </c>
@@ -1746,7 +1584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45312</v>
       </c>
@@ -1763,7 +1601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45310</v>
       </c>
@@ -1780,7 +1618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45313</v>
       </c>
@@ -1797,7 +1635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45297</v>
       </c>
@@ -1814,7 +1652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45305</v>
       </c>
@@ -1831,7 +1669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45311</v>
       </c>
@@ -1848,7 +1686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45305</v>
       </c>
@@ -1865,7 +1703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45297</v>
       </c>
@@ -1882,7 +1720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45328</v>
       </c>
@@ -1899,7 +1737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45325</v>
       </c>
@@ -1916,7 +1754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45332</v>
       </c>
@@ -1933,7 +1771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45333</v>
       </c>
@@ -1950,7 +1788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45323</v>
       </c>
@@ -1967,7 +1805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45323</v>
       </c>
@@ -1984,7 +1822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45327</v>
       </c>
@@ -2001,7 +1839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45330</v>
       </c>
@@ -2020,7 +1858,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
